--- a/data/Приложение №2.xlsx
+++ b/data/Приложение №2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5AA844-CF0C-4334-A163-7A310350DEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="параметры программ" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'параметры программ'!$B$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,7 +46,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -50,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="0" shapeId="0">
+    <comment ref="L31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +72,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -774,7 +785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,7 +1014,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,6 +1194,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1352,7 +1369,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1397,9 +1414,8 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="22" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1448,6 +1464,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,59 +1488,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="44"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="42"/>
-    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1"/>
-    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="43"/>
-    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Обычный 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1591,9 +1609,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1631,7 +1649,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1666,6 +1684,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1701,9 +1736,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1876,23 +1928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="4" width="71.5703125" customWidth="1"/>
-    <col min="5" max="14" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="4" width="71.5546875" customWidth="1"/>
+    <col min="5" max="14" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1936,11 +1988,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1981,11 +2033,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2024,11 +2076,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2069,11 +2121,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2112,11 +2164,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2157,11 +2209,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2200,11 +2252,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2245,11 +2297,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2288,11 +2340,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2331,11 +2383,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2374,11 +2426,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2417,11 +2469,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2460,11 +2512,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2505,11 +2557,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2548,11 +2600,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2593,11 +2645,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2636,11 +2688,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="25" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2681,11 +2733,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2724,11 +2776,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2767,11 +2819,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2810,8 +2862,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:14" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
@@ -2845,11 +2897,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2886,11 +2938,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2925,11 +2977,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2964,11 +3016,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
@@ -3003,11 +3055,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3042,11 +3094,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:14" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3081,11 +3133,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
@@ -3120,11 +3172,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="30">
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3159,11 +3211,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="24" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -3203,11 +3255,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
         <v>206</v>
       </c>
@@ -3245,11 +3297,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
         <v>207</v>
       </c>
@@ -3287,11 +3339,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
         <v>208</v>
       </c>
@@ -3329,11 +3381,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
         <v>209</v>
       </c>
@@ -3371,11 +3423,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
         <v>210</v>
       </c>
@@ -3413,11 +3465,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
         <v>211</v>
       </c>
@@ -3455,11 +3507,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
         <v>212</v>
       </c>
@@ -3497,11 +3549,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
         <v>213</v>
       </c>
@@ -3539,11 +3591,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
         <v>214</v>
       </c>
@@ -3582,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3627,7 +3679,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:N1"/>
+  <autoFilter ref="C1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="B16:B17"/>
@@ -3686,24 +3738,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
@@ -3723,7 +3775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>105</v>
       </c>
@@ -3743,7 +3795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>106</v>
       </c>
@@ -3763,7 +3815,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>107</v>
       </c>
@@ -3783,7 +3835,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -3803,7 +3855,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -3823,7 +3875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -3843,7 +3895,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>422</v>
       </c>
@@ -3863,7 +3915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>3091</v>
       </c>
@@ -3883,7 +3935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>54</v>
       </c>
@@ -3903,7 +3955,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
@@ -3923,7 +3975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
@@ -3950,26 +4002,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>183</v>
       </c>
@@ -3995,7 +4047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>111</v>
       </c>
@@ -4011,17 +4063,17 @@
       <c r="E2" s="19">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>137</v>
       </c>
@@ -4037,17 +4089,17 @@
       <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>133</v>
       </c>
@@ -4063,17 +4115,17 @@
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>161</v>
       </c>
@@ -4089,17 +4141,17 @@
       <c r="E5" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>165</v>
       </c>
@@ -4115,17 +4167,17 @@
       <c r="E6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>107</v>
       </c>
@@ -4141,17 +4193,17 @@
       <c r="E7" s="19">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>121</v>
       </c>
@@ -4167,17 +4219,17 @@
       <c r="E8" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>143</v>
       </c>
@@ -4193,17 +4245,17 @@
       <c r="E9" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>147</v>
       </c>
@@ -4219,17 +4271,17 @@
       <c r="E10" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>171</v>
       </c>
@@ -4245,17 +4297,17 @@
       <c r="E11" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>153</v>
       </c>
@@ -4271,17 +4323,17 @@
       <c r="E12" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>157</v>
       </c>
@@ -4297,17 +4349,17 @@
       <c r="E13" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
@@ -4323,17 +4375,17 @@
       <c r="E14" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>117</v>
       </c>
@@ -4349,17 +4401,17 @@
       <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>119</v>
       </c>
@@ -4375,17 +4427,17 @@
       <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>135</v>
       </c>
@@ -4401,17 +4453,17 @@
       <c r="E17" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>139</v>
       </c>
@@ -4427,17 +4479,17 @@
       <c r="E18" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>151</v>
       </c>
@@ -4453,17 +4505,17 @@
       <c r="E19" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>155</v>
       </c>
@@ -4479,17 +4531,17 @@
       <c r="E20" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>173</v>
       </c>
@@ -4505,17 +4557,17 @@
       <c r="E21" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>113</v>
       </c>
@@ -4531,17 +4583,17 @@
       <c r="E22" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>115</v>
       </c>
@@ -4557,17 +4609,17 @@
       <c r="E23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>123</v>
       </c>
@@ -4583,17 +4635,17 @@
       <c r="E24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>141</v>
       </c>
@@ -4609,17 +4661,17 @@
       <c r="E25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>125</v>
       </c>
@@ -4635,17 +4687,17 @@
       <c r="E26" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>127</v>
       </c>
@@ -4661,17 +4713,17 @@
       <c r="E27" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>129</v>
       </c>
@@ -4687,17 +4739,17 @@
       <c r="E28" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>131</v>
       </c>
@@ -4713,17 +4765,17 @@
       <c r="E29" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>145</v>
       </c>
@@ -4739,17 +4791,17 @@
       <c r="E30" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>163</v>
       </c>
@@ -4765,17 +4817,17 @@
       <c r="E31" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="G31" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>149</v>
       </c>
@@ -4791,17 +4843,17 @@
       <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>159</v>
       </c>
@@ -4817,17 +4869,17 @@
       <c r="E33" s="19">
         <v>2</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>167</v>
       </c>
@@ -4843,17 +4895,17 @@
       <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>169</v>
       </c>
@@ -4869,13 +4921,13 @@
       <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="20" t="s">
         <v>73</v>
       </c>
     </row>
